--- a/TestData/PreProdTestData.xlsx
+++ b/TestData/PreProdTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Test Data</t>
   </si>
@@ -310,13 +310,19 @@
     <t>PWD</t>
   </si>
   <si>
-    <t>prevdn1@yopmail.com</t>
-  </si>
-  <si>
     <t>AutoCourse</t>
   </si>
   <si>
     <t>messi@yopmail.com</t>
+  </si>
+  <si>
+    <t>preprod50@yopmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>preprod40@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -684,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -709,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -829,7 +835,7 @@
         <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1077,7 +1083,7 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1132,12 +1138,17 @@
       <c r="A55" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
+      <c r="B56" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
@@ -1175,6 +1186,38 @@
         <v>91</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1188,8 +1231,14 @@
     <hyperlink ref="B62" r:id="rId6"/>
     <hyperlink ref="B17" r:id="rId7"/>
     <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B55" r:id="rId9"/>
+    <hyperlink ref="B56" r:id="rId10"/>
+    <hyperlink ref="B67" r:id="rId11"/>
+    <hyperlink ref="B68" r:id="rId12"/>
+    <hyperlink ref="B69" r:id="rId13"/>
+    <hyperlink ref="B70" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
--- a/TestData/PreProdTestData.xlsx
+++ b/TestData/PreProdTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>Test Data</t>
   </si>
@@ -323,18 +323,43 @@
   </si>
   <si>
     <t>preprod40@yopmail.com</t>
+  </si>
+  <si>
+    <t>HomePageValidationUser</t>
+  </si>
+  <si>
+    <t>preprod38@yopmail.com</t>
+  </si>
+  <si>
+    <t>do_31249200736409190413915</t>
+  </si>
+  <si>
+    <t>UrduContent</t>
+  </si>
+  <si>
+    <t>AutomationCertCourse</t>
+  </si>
+  <si>
+    <t>do_2135757253878333441830</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,19 +426,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1189,6 +1216,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>93</v>
@@ -1219,6 +1262,38 @@
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1237,8 +1312,12 @@
     <hyperlink ref="B68" r:id="rId12"/>
     <hyperlink ref="B69" r:id="rId13"/>
     <hyperlink ref="B70" r:id="rId14"/>
+    <hyperlink ref="B63" r:id="rId15"/>
+    <hyperlink ref="B64" r:id="rId16"/>
+    <hyperlink ref="B77" r:id="rId17"/>
+    <hyperlink ref="B78" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/TestData/PreProdTestData.xlsx
+++ b/TestData/PreProdTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>Test Data</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>do_2135757253878333441830</t>
+  </si>
+  <si>
+    <t>do_2136244680217886721193</t>
+  </si>
+  <si>
+    <t>enrollmentEndDateCourse</t>
   </si>
 </sst>
 </file>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1294,6 +1300,14 @@
       </c>
       <c r="B81" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/PreProdTestData.xlsx
+++ b/TestData/PreProdTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>Test Data</t>
   </si>
@@ -268,9 +268,6 @@
     <t>UpdatedCourseDetails</t>
   </si>
   <si>
-    <t>UpdatedCourseContent</t>
-  </si>
-  <si>
     <t>small Course</t>
   </si>
   <si>
@@ -347,6 +344,12 @@
   </si>
   <si>
     <t>enrollmentEndDateCourse</t>
+  </si>
+  <si>
+    <t>preprod51@yopmail.com</t>
+  </si>
+  <si>
+    <t>UpdatedMsgCourseContent</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -748,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -865,10 +868,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1116,7 +1119,7 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1140,20 +1143,20 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1161,23 +1164,23 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
         <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="6"/>
     </row>
@@ -1196,27 +1199,27 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -1224,15 +1227,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
@@ -1240,15 +1243,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>3</v>
@@ -1256,15 +1259,15 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -1272,23 +1275,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>3</v>
@@ -1296,18 +1299,18 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
         <v>107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
